--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.325378685217109</v>
+        <v>0.4442896666666667</v>
       </c>
       <c r="H2">
-        <v>0.325378685217109</v>
+        <v>1.332869</v>
       </c>
       <c r="I2">
-        <v>0.5406695422560636</v>
+        <v>0.3907142741981582</v>
       </c>
       <c r="J2">
-        <v>0.5406695422560636</v>
+        <v>0.3907142741981582</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.36175898593829</v>
+        <v>135.955556</v>
       </c>
       <c r="N2">
-        <v>94.36175898593829</v>
+        <v>407.866668</v>
       </c>
       <c r="O2">
-        <v>0.6356050738128274</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="P2">
-        <v>0.6356050738128274</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="Q2">
-        <v>30.70330507361832</v>
+        <v>60.40364865672134</v>
       </c>
       <c r="R2">
-        <v>30.70330507361832</v>
+        <v>543.6328379104921</v>
       </c>
       <c r="S2">
-        <v>0.3436523043140129</v>
+        <v>0.2714557746230463</v>
       </c>
       <c r="T2">
-        <v>0.3436523043140129</v>
+        <v>0.2714557746230463</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.325378685217109</v>
+        <v>0.4442896666666667</v>
       </c>
       <c r="H3">
-        <v>0.325378685217109</v>
+        <v>1.332869</v>
       </c>
       <c r="I3">
-        <v>0.5406695422560636</v>
+        <v>0.3907142741981582</v>
       </c>
       <c r="J3">
-        <v>0.5406695422560636</v>
+        <v>0.3907142741981582</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>51.878142231875</v>
+        <v>0.449122</v>
       </c>
       <c r="N3">
-        <v>51.878142231875</v>
+        <v>1.347366</v>
       </c>
       <c r="O3">
-        <v>0.3494425154524411</v>
+        <v>0.002295129398228494</v>
       </c>
       <c r="P3">
-        <v>0.3494425154524411</v>
+        <v>0.002295129398228494</v>
       </c>
       <c r="Q3">
-        <v>16.88004171091367</v>
+        <v>0.1995402636726667</v>
       </c>
       <c r="R3">
-        <v>16.88004171091367</v>
+        <v>1.795862373054</v>
       </c>
       <c r="S3">
-        <v>0.1889329248744787</v>
+        <v>0.0008967398170197016</v>
       </c>
       <c r="T3">
-        <v>0.1889329248744787</v>
+        <v>0.0008967398170197014</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.325378685217109</v>
+        <v>0.4442896666666667</v>
       </c>
       <c r="H4">
-        <v>0.325378685217109</v>
+        <v>1.332869</v>
       </c>
       <c r="I4">
-        <v>0.5406695422560636</v>
+        <v>0.3907142741981582</v>
       </c>
       <c r="J4">
-        <v>0.5406695422560636</v>
+        <v>0.3907142741981582</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.21983089207526</v>
+        <v>56.38366533333333</v>
       </c>
       <c r="N4">
-        <v>2.21983089207526</v>
+        <v>169.150996</v>
       </c>
       <c r="O4">
-        <v>0.0149524107347315</v>
+        <v>0.2881350899898248</v>
       </c>
       <c r="P4">
-        <v>0.0149524107347315</v>
+        <v>0.2881350899898248</v>
       </c>
       <c r="Q4">
-        <v>0.7222856570677703</v>
+        <v>25.05067987639156</v>
       </c>
       <c r="R4">
-        <v>0.7222856570677703</v>
+        <v>225.456118887524</v>
       </c>
       <c r="S4">
-        <v>0.008084313067571928</v>
+        <v>0.1125784925563954</v>
       </c>
       <c r="T4">
-        <v>0.008084313067571928</v>
+        <v>0.1125784925563954</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.276428259297269</v>
+        <v>0.4442896666666667</v>
       </c>
       <c r="H5">
-        <v>0.276428259297269</v>
+        <v>1.332869</v>
       </c>
       <c r="I5">
-        <v>0.4593304577439364</v>
+        <v>0.3907142741981582</v>
       </c>
       <c r="J5">
-        <v>0.4593304577439364</v>
+        <v>0.3907142741981582</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>94.36175898593829</v>
+        <v>2.896484</v>
       </c>
       <c r="N5">
-        <v>94.36175898593829</v>
+        <v>8.689451999999999</v>
       </c>
       <c r="O5">
-        <v>0.6356050738128274</v>
+        <v>0.01480178120844327</v>
       </c>
       <c r="P5">
-        <v>0.6356050738128274</v>
+        <v>0.01480178120844327</v>
       </c>
       <c r="Q5">
-        <v>26.08425678071135</v>
+        <v>1.286877910865333</v>
       </c>
       <c r="R5">
-        <v>26.08425678071135</v>
+        <v>11.581901197788</v>
       </c>
       <c r="S5">
-        <v>0.2919527694988145</v>
+        <v>0.00578326720169685</v>
       </c>
       <c r="T5">
-        <v>0.2919527694988145</v>
+        <v>0.00578326720169685</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.276428259297269</v>
+        <v>0.3321106666666667</v>
       </c>
       <c r="H6">
-        <v>0.276428259297269</v>
+        <v>0.996332</v>
       </c>
       <c r="I6">
-        <v>0.4593304577439364</v>
+        <v>0.2920625614673305</v>
       </c>
       <c r="J6">
-        <v>0.4593304577439364</v>
+        <v>0.2920625614673305</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.878142231875</v>
+        <v>135.955556</v>
       </c>
       <c r="N6">
-        <v>51.878142231875</v>
+        <v>407.866668</v>
       </c>
       <c r="O6">
-        <v>0.3494425154524411</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="P6">
-        <v>0.3494425154524411</v>
+        <v>0.6947679994035034</v>
       </c>
       <c r="Q6">
-        <v>14.34058455273335</v>
+        <v>45.15229034019733</v>
       </c>
       <c r="R6">
-        <v>14.34058455273335</v>
+        <v>406.370613061776</v>
       </c>
       <c r="S6">
-        <v>0.1605095905779624</v>
+        <v>0.20291572153132</v>
       </c>
       <c r="T6">
-        <v>0.1605095905779624</v>
+        <v>0.20291572153132</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,681 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.276428259297269</v>
+        <v>0.3321106666666667</v>
       </c>
       <c r="H7">
-        <v>0.276428259297269</v>
+        <v>0.996332</v>
       </c>
       <c r="I7">
-        <v>0.4593304577439364</v>
+        <v>0.2920625614673305</v>
       </c>
       <c r="J7">
-        <v>0.4593304577439364</v>
+        <v>0.2920625614673305</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.21983089207526</v>
+        <v>0.449122</v>
       </c>
       <c r="N7">
-        <v>2.21983089207526</v>
+        <v>1.347366</v>
       </c>
       <c r="O7">
-        <v>0.0149524107347315</v>
+        <v>0.002295129398228494</v>
       </c>
       <c r="P7">
-        <v>0.0149524107347315</v>
+        <v>0.002295129398228494</v>
       </c>
       <c r="Q7">
-        <v>0.6136239894306679</v>
+        <v>0.1491582068346667</v>
       </c>
       <c r="R7">
-        <v>0.6136239894306679</v>
+        <v>1.342423861512</v>
       </c>
       <c r="S7">
-        <v>0.006868097667159566</v>
+        <v>0.0006703213709455868</v>
       </c>
       <c r="T7">
-        <v>0.006868097667159566</v>
+        <v>0.0006703213709455866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.3321106666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.996332</v>
+      </c>
+      <c r="I8">
+        <v>0.2920625614673305</v>
+      </c>
+      <c r="J8">
+        <v>0.2920625614673305</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>56.38366533333333</v>
+      </c>
+      <c r="N8">
+        <v>169.150996</v>
+      </c>
+      <c r="O8">
+        <v>0.2881350899898248</v>
+      </c>
+      <c r="P8">
+        <v>0.2881350899898248</v>
+      </c>
+      <c r="Q8">
+        <v>18.72561668296355</v>
+      </c>
+      <c r="R8">
+        <v>168.530550146672</v>
+      </c>
+      <c r="S8">
+        <v>0.08415347243104802</v>
+      </c>
+      <c r="T8">
+        <v>0.08415347243104801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3321106666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.996332</v>
+      </c>
+      <c r="I9">
+        <v>0.2920625614673305</v>
+      </c>
+      <c r="J9">
+        <v>0.2920625614673305</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.896484</v>
+      </c>
+      <c r="N9">
+        <v>8.689451999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.01480178120844327</v>
+      </c>
+      <c r="P9">
+        <v>0.01480178120844327</v>
+      </c>
+      <c r="Q9">
+        <v>0.9619532322293332</v>
+      </c>
+      <c r="R9">
+        <v>8.657579090063999</v>
+      </c>
+      <c r="S9">
+        <v>0.004323046134016941</v>
+      </c>
+      <c r="T9">
+        <v>0.004323046134016941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.05976866666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.179306</v>
+      </c>
+      <c r="I10">
+        <v>0.05256136473229924</v>
+      </c>
+      <c r="J10">
+        <v>0.05256136473229924</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>135.955556</v>
+      </c>
+      <c r="N10">
+        <v>407.866668</v>
+      </c>
+      <c r="O10">
+        <v>0.6947679994035034</v>
+      </c>
+      <c r="P10">
+        <v>0.6947679994035034</v>
+      </c>
+      <c r="Q10">
+        <v>8.125882308045334</v>
+      </c>
+      <c r="R10">
+        <v>73.13294077240801</v>
+      </c>
+      <c r="S10">
+        <v>0.03651795422097741</v>
+      </c>
+      <c r="T10">
+        <v>0.03651795422097741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.05976866666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.179306</v>
+      </c>
+      <c r="I11">
+        <v>0.05256136473229924</v>
+      </c>
+      <c r="J11">
+        <v>0.05256136473229924</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.449122</v>
+      </c>
+      <c r="N11">
+        <v>1.347366</v>
+      </c>
+      <c r="O11">
+        <v>0.002295129398228494</v>
+      </c>
+      <c r="P11">
+        <v>0.002295129398228494</v>
+      </c>
+      <c r="Q11">
+        <v>0.02684342311066667</v>
+      </c>
+      <c r="R11">
+        <v>0.2415908079960001</v>
+      </c>
+      <c r="S11">
+        <v>0.0001206351334081103</v>
+      </c>
+      <c r="T11">
+        <v>0.0001206351334081103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.05976866666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.179306</v>
+      </c>
+      <c r="I12">
+        <v>0.05256136473229924</v>
+      </c>
+      <c r="J12">
+        <v>0.05256136473229924</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>56.38366533333333</v>
+      </c>
+      <c r="N12">
+        <v>169.150996</v>
+      </c>
+      <c r="O12">
+        <v>0.2881350899898248</v>
+      </c>
+      <c r="P12">
+        <v>0.2881350899898248</v>
+      </c>
+      <c r="Q12">
+        <v>3.369976498752889</v>
+      </c>
+      <c r="R12">
+        <v>30.329788488776</v>
+      </c>
+      <c r="S12">
+        <v>0.01514477355712905</v>
+      </c>
+      <c r="T12">
+        <v>0.01514477355712904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.05976866666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.179306</v>
+      </c>
+      <c r="I13">
+        <v>0.05256136473229924</v>
+      </c>
+      <c r="J13">
+        <v>0.05256136473229924</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.896484</v>
+      </c>
+      <c r="N13">
+        <v>8.689451999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.01480178120844327</v>
+      </c>
+      <c r="P13">
+        <v>0.01480178120844327</v>
+      </c>
+      <c r="Q13">
+        <v>0.1731189867013333</v>
+      </c>
+      <c r="R13">
+        <v>1.558070880312</v>
+      </c>
+      <c r="S13">
+        <v>0.0007780018207846799</v>
+      </c>
+      <c r="T13">
+        <v>0.0007780018207846799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3009526666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.902858</v>
+      </c>
+      <c r="I14">
+        <v>0.264661799602212</v>
+      </c>
+      <c r="J14">
+        <v>0.264661799602212</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>135.955556</v>
+      </c>
+      <c r="N14">
+        <v>407.866668</v>
+      </c>
+      <c r="O14">
+        <v>0.6947679994035034</v>
+      </c>
+      <c r="P14">
+        <v>0.6947679994035034</v>
+      </c>
+      <c r="Q14">
+        <v>40.91618712634934</v>
+      </c>
+      <c r="R14">
+        <v>368.245684137144</v>
+      </c>
+      <c r="S14">
+        <v>0.1838785490281598</v>
+      </c>
+      <c r="T14">
+        <v>0.1838785490281598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3009526666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.902858</v>
+      </c>
+      <c r="I15">
+        <v>0.264661799602212</v>
+      </c>
+      <c r="J15">
+        <v>0.264661799602212</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.449122</v>
+      </c>
+      <c r="N15">
+        <v>1.347366</v>
+      </c>
+      <c r="O15">
+        <v>0.002295129398228494</v>
+      </c>
+      <c r="P15">
+        <v>0.002295129398228494</v>
+      </c>
+      <c r="Q15">
+        <v>0.1351644635586667</v>
+      </c>
+      <c r="R15">
+        <v>1.216480172028</v>
+      </c>
+      <c r="S15">
+        <v>0.0006074330768550952</v>
+      </c>
+      <c r="T15">
+        <v>0.0006074330768550949</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3009526666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.902858</v>
+      </c>
+      <c r="I16">
+        <v>0.264661799602212</v>
+      </c>
+      <c r="J16">
+        <v>0.264661799602212</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>56.38366533333333</v>
+      </c>
+      <c r="N16">
+        <v>169.150996</v>
+      </c>
+      <c r="O16">
+        <v>0.2881350899898248</v>
+      </c>
+      <c r="P16">
+        <v>0.2881350899898248</v>
+      </c>
+      <c r="Q16">
+        <v>16.96881443850756</v>
+      </c>
+      <c r="R16">
+        <v>152.719329946568</v>
+      </c>
+      <c r="S16">
+        <v>0.07625835144525235</v>
+      </c>
+      <c r="T16">
+        <v>0.07625835144525232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3009526666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.902858</v>
+      </c>
+      <c r="I17">
+        <v>0.264661799602212</v>
+      </c>
+      <c r="J17">
+        <v>0.264661799602212</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.896484</v>
+      </c>
+      <c r="N17">
+        <v>8.689451999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.01480178120844327</v>
+      </c>
+      <c r="P17">
+        <v>0.01480178120844327</v>
+      </c>
+      <c r="Q17">
+        <v>0.8717045837573333</v>
+      </c>
+      <c r="R17">
+        <v>7.845341253816</v>
+      </c>
+      <c r="S17">
+        <v>0.003917466051944801</v>
+      </c>
+      <c r="T17">
+        <v>0.003917466051944801</v>
       </c>
     </row>
   </sheetData>
